--- a/JobsListed.xlsx
+++ b/JobsListed.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3375</v>
       </c>
     </row>
   </sheetData>

--- a/JobsListed.xlsx
+++ b/JobsListed.xlsx
@@ -456,11 +456,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Washington DC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="5">
